--- a/demo/py_outputs/villages/Bijapur_Source_Map.xlsx
+++ b/demo/py_outputs/villages/Bijapur_Source_Map.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L121"/>
+  <dimension ref="A1:M121"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -494,6 +494,11 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Branch Distance</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -548,6 +553,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M2" t="n">
+        <v>27.08748576112591</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -602,6 +610,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M3" t="n">
+        <v>27.61598509073527</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -656,6 +667,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M4" t="n">
+        <v>25.32050620903205</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -710,6 +724,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M5" t="n">
+        <v>23.04988947440692</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -764,6 +781,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M6" t="n">
+        <v>24.49607125064694</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -818,6 +838,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M7" t="n">
+        <v>21.89355230653786</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -872,6 +895,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M8" t="n">
+        <v>18.29735718737609</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -926,6 +952,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M9" t="n">
+        <v>13.65936221198203</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -980,6 +1009,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M10" t="n">
+        <v>16.53236090530082</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1034,6 +1066,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M11" t="n">
+        <v>13.05337641164145</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1088,6 +1123,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M12" t="n">
+        <v>8.308492897602997</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1142,6 +1180,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M13" t="n">
+        <v>10.86249921481709</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1196,6 +1237,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M14" t="n">
+        <v>14.07167407341032</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1250,6 +1294,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M15" t="n">
+        <v>15.13836745158223</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1304,6 +1351,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M16" t="n">
+        <v>17.2372166482487</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1358,6 +1408,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M17" t="n">
+        <v>21.1272843629901</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1412,6 +1465,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M18" t="n">
+        <v>14.74838062628423</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1466,6 +1522,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M19" t="n">
+        <v>23.5084838075149</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1520,6 +1579,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M20" t="n">
+        <v>27.67884056519474</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1574,6 +1636,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M21" t="n">
+        <v>25.38515926775105</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1628,6 +1693,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M22" t="n">
+        <v>17.74793027859644</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1682,6 +1750,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M23" t="n">
+        <v>20.75864526487226</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1736,6 +1807,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M24" t="n">
+        <v>16.18691863533992</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1790,6 +1864,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M25" t="n">
+        <v>20.2365663393414</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1844,6 +1921,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M26" t="n">
+        <v>25.03189661634505</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1898,6 +1978,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M27" t="n">
+        <v>10.0325917907319</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1952,6 +2035,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M28" t="n">
+        <v>9.857574975373748</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -2006,6 +2092,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M29" t="n">
+        <v>7.062895616423466</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -2060,6 +2149,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M30" t="n">
+        <v>28.33712066918588</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -2114,6 +2206,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M31" t="n">
+        <v>26.61365589433548</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -2168,6 +2263,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M32" t="n">
+        <v>21.11264993050206</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -2219,8 +2317,11 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>Yet-To-Visit</t>
-        </is>
+          <t>Visited</t>
+        </is>
+      </c>
+      <c r="M33" t="n">
+        <v>21.04662679424705</v>
       </c>
     </row>
     <row r="34">
@@ -2276,6 +2377,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M34" t="n">
+        <v>17.77797799408369</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -2330,6 +2434,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M35" t="n">
+        <v>26.74951852228697</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -2384,6 +2491,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M36" t="n">
+        <v>23.04558687452842</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -2438,6 +2548,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M37" t="n">
+        <v>20.61698687944173</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -2492,6 +2605,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M38" t="n">
+        <v>16.42075498860058</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -2546,6 +2662,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M39" t="n">
+        <v>19.35823386240845</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -2600,6 +2719,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M40" t="n">
+        <v>22.55043626411486</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -2654,6 +2776,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M41" t="n">
+        <v>23.3291658332181</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -2708,6 +2833,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M42" t="n">
+        <v>18.99148604842725</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -2762,6 +2890,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M43" t="n">
+        <v>16.32935206510183</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -2816,6 +2947,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M44" t="n">
+        <v>14.71875090222211</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -2870,6 +3004,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M45" t="n">
+        <v>11.10790839446362</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -2924,6 +3061,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M46" t="n">
+        <v>16.8730754179922</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -2978,6 +3118,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M47" t="n">
+        <v>21.36920612827487</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -3032,6 +3175,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M48" t="n">
+        <v>25.73371656616238</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -3086,6 +3232,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M49" t="n">
+        <v>23.5514059905374</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -3140,6 +3289,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M50" t="n">
+        <v>20.93251014450957</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -3194,6 +3346,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M51" t="n">
+        <v>3.036082711984386</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -3248,6 +3403,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M52" t="n">
+        <v>7.407891358218608</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -3299,8 +3457,11 @@
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>Yet-To-Visit</t>
-        </is>
+          <t>Visited</t>
+        </is>
+      </c>
+      <c r="M53" t="n">
+        <v>4.017410393810537</v>
       </c>
     </row>
     <row r="54">
@@ -3356,6 +3517,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M54" t="n">
+        <v>6.622824781952447</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -3410,6 +3574,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M55" t="n">
+        <v>8.383349206574772</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -3464,6 +3631,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M56" t="n">
+        <v>10.93442135319977</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -3518,6 +3688,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M57" t="n">
+        <v>15.45871199444447</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -3569,8 +3742,11 @@
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>Yet-To-Visit</t>
-        </is>
+          <t>Visited</t>
+        </is>
+      </c>
+      <c r="M58" t="n">
+        <v>17.72289308142237</v>
       </c>
     </row>
     <row r="59">
@@ -3626,6 +3802,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M59" t="n">
+        <v>19.18483829275582</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -3680,6 +3859,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M60" t="n">
+        <v>22.73919287102963</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -3734,6 +3916,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M61" t="n">
+        <v>28.20856886141097</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -3788,6 +3973,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M62" t="n">
+        <v>29.79455116662648</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -3842,6 +4030,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M63" t="n">
+        <v>26.65972922039782</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -3896,6 +4087,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M64" t="n">
+        <v>22.42740707259931</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -3950,6 +4144,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M65" t="n">
+        <v>16.38121950200029</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -4004,6 +4201,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M66" t="n">
+        <v>14.31533370798146</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -4058,6 +4258,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M67" t="n">
+        <v>12.41288516098124</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -4112,6 +4315,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M68" t="n">
+        <v>10.61161979983839</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -4166,6 +4372,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M69" t="n">
+        <v>4.052438752463292</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -4220,6 +4429,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M70" t="n">
+        <v>8.193463741945241</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -4271,8 +4483,11 @@
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>Yet-To-Visit</t>
-        </is>
+          <t>Visited</t>
+        </is>
+      </c>
+      <c r="M71" t="n">
+        <v>8.8566089127007</v>
       </c>
     </row>
     <row r="72">
@@ -4328,6 +4543,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M72" t="n">
+        <v>11.3403046386471</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -4382,6 +4600,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M73" t="n">
+        <v>10.11269858405198</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -4436,6 +4657,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M74" t="n">
+        <v>13.7071892199312</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -4490,6 +4714,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M75" t="n">
+        <v>12.90713997082254</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -4544,6 +4771,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M76" t="n">
+        <v>15.78520019537407</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -4598,6 +4828,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M77" t="n">
+        <v>24.94638997692996</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -4652,6 +4885,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M78" t="n">
+        <v>20.92879981370749</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -4706,6 +4942,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M79" t="n">
+        <v>15.72529150925655</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -4760,6 +4999,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M80" t="n">
+        <v>13.86631989263486</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -4814,6 +5056,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M81" t="n">
+        <v>11.92211302806416</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -4868,6 +5113,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M82" t="n">
+        <v>13.71897882768159</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -4922,6 +5170,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M83" t="n">
+        <v>13.33164377997494</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -4976,6 +5227,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M84" t="n">
+        <v>12.41056868088648</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -5030,6 +5284,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M85" t="n">
+        <v>16.72545683812835</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -5084,6 +5341,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M86" t="n">
+        <v>20.217401045261</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -5138,6 +5398,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M87" t="n">
+        <v>15.81838011921014</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -5192,6 +5455,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M88" t="n">
+        <v>21.72191594205919</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -5246,6 +5512,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M89" t="n">
+        <v>27.37763544421724</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -5300,6 +5569,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M90" t="n">
+        <v>24.53958857306537</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -5354,6 +5626,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M91" t="n">
+        <v>25.85981666569276</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -5408,6 +5683,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M92" t="n">
+        <v>29.4229402380716</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -5462,6 +5740,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M93" t="n">
+        <v>28.99946730487848</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -5516,6 +5797,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M94" t="n">
+        <v>28.51853826108918</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -5570,6 +5854,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M95" t="n">
+        <v>22.48711942605062</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -5624,6 +5911,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M96" t="n">
+        <v>26.97350724177362</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -5678,6 +5968,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M97" t="n">
+        <v>22.91838093703117</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -5732,6 +6025,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M98" t="n">
+        <v>28.04538101447721</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -5786,6 +6082,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M99" t="n">
+        <v>29.6448470878111</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -5840,6 +6139,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M100" t="n">
+        <v>27.97569937858788</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -5894,6 +6196,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M101" t="n">
+        <v>26.05254801714695</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -5948,6 +6253,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M102" t="n">
+        <v>28.90155302682171</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -6002,6 +6310,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M103" t="n">
+        <v>26.42625196702969</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -6056,6 +6367,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M104" t="n">
+        <v>28.5741658605026</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -6110,6 +6424,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M105" t="n">
+        <v>29.72489867190522</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -6164,6 +6481,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M106" t="n">
+        <v>21.86205050273424</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -6218,6 +6538,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M107" t="n">
+        <v>26.58000731487559</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -6272,6 +6595,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M108" t="n">
+        <v>28.14223971044785</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -6326,6 +6652,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M109" t="n">
+        <v>19.52260707534849</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -6380,6 +6709,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M110" t="n">
+        <v>20.7927667551135</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -6434,6 +6766,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M111" t="n">
+        <v>22.66371936067479</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -6488,6 +6823,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M112" t="n">
+        <v>25.16130856256603</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -6542,6 +6880,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M113" t="n">
+        <v>27.35945667800803</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -6596,6 +6937,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M114" t="n">
+        <v>26.96033307056093</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -6650,6 +6994,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M115" t="n">
+        <v>28.96949359656352</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -6704,6 +7051,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M116" t="n">
+        <v>26.78607653205688</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -6758,6 +7108,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M117" t="n">
+        <v>16.62512783682848</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -6812,6 +7165,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M118" t="n">
+        <v>24.652032917093</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -6866,6 +7222,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M119" t="n">
+        <v>26.55510397579953</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -6920,6 +7279,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M120" t="n">
+        <v>27.62869823967219</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -6973,6 +7335,9 @@
         <is>
           <t>Visited</t>
         </is>
+      </c>
+      <c r="M121" t="n">
+        <v>3.489578221655408</v>
       </c>
     </row>
   </sheetData>
